--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.1496189996107221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09915570174172876</v>
+        <v>0.09915570174172877</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.207367924446454</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.09626750128487405</v>
+        <v>0.09626750128487407</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2166340985071196</v>
+        <v>0.2200727274263949</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05815595239563592</v>
+        <v>0.05917421139079694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1153119341701032</v>
+        <v>0.1159066750863813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06317639073033335</v>
+        <v>0.06214305002817297</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1780097194852806</v>
+        <v>0.1781789241591613</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0669308540954254</v>
+        <v>0.07041564499874957</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3053207114584731</v>
+        <v>0.3116829450561149</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1418201542879117</v>
+        <v>0.1406161202271652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1854699291714372</v>
+        <v>0.1919170335782693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1470297879962206</v>
+        <v>0.1465219428268625</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2372094019805751</v>
+        <v>0.2384505773686066</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1262171590100722</v>
+        <v>0.1309199663549773</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2400538884361381</v>
+        <v>0.2426786450071838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1893409387896137</v>
+        <v>0.1931718987870908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1462152941480558</v>
+        <v>0.1435661365921937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06652904862939216</v>
+        <v>0.06693280264153112</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2060158305951444</v>
+        <v>0.2028480901813402</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1320145315989007</v>
+        <v>0.1350955467805569</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3208456438782468</v>
+        <v>0.3195898995305375</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2923676626731724</v>
+        <v>0.2937542171980732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2073882645944654</v>
+        <v>0.2126544476195412</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1174210831680484</v>
+        <v>0.1199717403524505</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2544629391776642</v>
+        <v>0.2531975885157308</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1925246721697928</v>
+        <v>0.1955403355538494</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2594037621799218</v>
+        <v>0.2606337609668818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1667828576780262</v>
+        <v>0.1676981408887603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1516712624592274</v>
+        <v>0.1505117055134897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08880245352708882</v>
+        <v>0.08915489042325374</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.214199336167717</v>
+        <v>0.2158715813308192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.135101229355401</v>
+        <v>0.1357668361669296</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3320040397347293</v>
+        <v>0.3319518094589253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2373738570982953</v>
+        <v>0.2341372249221466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.208092233899484</v>
+        <v>0.2108053960375981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1293639658641617</v>
+        <v>0.1302699344376197</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2593897290416642</v>
+        <v>0.2618004214132801</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1759678294490205</v>
+        <v>0.1766205262868747</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.3526219547690395</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2499266228882573</v>
+        <v>0.2499266228882572</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2148250064257081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1409561185016637</v>
+        <v>0.1409561185016636</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2830600843307601</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3141395238482979</v>
+        <v>0.3169212143147702</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2210252500163578</v>
+        <v>0.2172768472861929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1840150772096</v>
+        <v>0.1848562798044036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1216492247254255</v>
+        <v>0.1202210752933014</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2581928627084848</v>
+        <v>0.2568576865815326</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1742201108668644</v>
+        <v>0.1759036246863667</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3933271361929326</v>
+        <v>0.3889655605690428</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2861679440937843</v>
+        <v>0.2848804102575155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2480045943070557</v>
+        <v>0.2468385483226029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1621797461343547</v>
+        <v>0.1598472014762037</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3114313990036828</v>
+        <v>0.3086876474632597</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2126961115634897</v>
+        <v>0.2138447586499184</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.3318002416112542</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2283949747742334</v>
+        <v>0.2283949747742333</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3434217264040145</v>
+        <v>0.3448213424803718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2639208052471115</v>
+        <v>0.26409851028063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2306484830807485</v>
+        <v>0.2344890266833793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1358323487757443</v>
+        <v>0.1359685143101801</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2963172691809027</v>
+        <v>0.2999246381870961</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2086166976186265</v>
+        <v>0.2083639419400211</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4396138982313745</v>
+        <v>0.4430267815886053</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3331662836414571</v>
+        <v>0.3332386494622265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3119955931399621</v>
+        <v>0.3151123879894297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1810811956247229</v>
+        <v>0.1803828562679952</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3655812309252829</v>
+        <v>0.3648897141703417</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2499582711644737</v>
+        <v>0.2521414038628576</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4205830727818729</v>
+        <v>0.4251645892168017</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2810580858650129</v>
+        <v>0.279232006708633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.255527612831038</v>
+        <v>0.2574255228776898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1872571976329757</v>
+        <v>0.184993717302002</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.356421132259439</v>
+        <v>0.3534288009838283</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2396443891428361</v>
+        <v>0.239330168254883</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.533148954698231</v>
+        <v>0.5418993792691155</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3583368617445906</v>
+        <v>0.3558692368063058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3524895455200026</v>
+        <v>0.3560297740475968</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2453198897510016</v>
+        <v>0.2430894688900274</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4288652013473374</v>
+        <v>0.429372522904043</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2860269105971139</v>
+        <v>0.2888291929995326</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.5316129549357789</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4322344417034922</v>
+        <v>0.4322344417034921</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.4627034837493911</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4730351173402785</v>
+        <v>0.4767609178136239</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3858060057284421</v>
+        <v>0.3843571448915095</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.400466783630481</v>
+        <v>0.4053827660817621</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3683839403023095</v>
+        <v>0.3679421573199431</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4464199136056082</v>
+        <v>0.4480674621396258</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.386834727326524</v>
+        <v>0.3861151568972985</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5871846529657788</v>
+        <v>0.5903707538615323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4848160016634501</v>
+        <v>0.4841872191439631</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5252786718337654</v>
+        <v>0.5240232811311238</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4366847503853137</v>
+        <v>0.4386715568505695</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5298501456169302</v>
+        <v>0.5318943078669335</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.442188602962732</v>
+        <v>0.4443312151274644</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3303095614426234</v>
+        <v>0.3324129839775321</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2378566513783182</v>
+        <v>0.2382234176206313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2245877987815423</v>
+        <v>0.2248348221992963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1576526223747825</v>
+        <v>0.1574841263937971</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2828395537144792</v>
+        <v>0.2810784725827337</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2002364559443913</v>
+        <v>0.2002871136873857</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3652058592670118</v>
+        <v>0.3652041152205048</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2690271543386024</v>
+        <v>0.2689768009754597</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2541388189270887</v>
+        <v>0.2558849472671814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.177589683014208</v>
+        <v>0.1782168513172317</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3040394926240069</v>
+        <v>0.3042037532016771</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2188416945617814</v>
+        <v>0.2180997542709679</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89069</v>
+        <v>90483</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23716</v>
+        <v>24131</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44613</v>
+        <v>44843</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22902</v>
+        <v>22528</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>142058</v>
+        <v>142193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>51557</v>
+        <v>54242</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>125532</v>
+        <v>128148</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57833</v>
+        <v>57342</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71756</v>
+        <v>74250</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53300</v>
+        <v>53116</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189301</v>
+        <v>190292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>97226</v>
+        <v>100848</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>138866</v>
+        <v>140384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>90295</v>
+        <v>92122</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>81151</v>
+        <v>79681</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33337</v>
+        <v>33539</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>233517</v>
+        <v>229926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>129107</v>
+        <v>132120</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>185602</v>
+        <v>184875</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>139427</v>
+        <v>140088</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>115103</v>
+        <v>118026</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>58838</v>
+        <v>60116</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>288431</v>
+        <v>286997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>188284</v>
+        <v>191233</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>170833</v>
+        <v>171643</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>103545</v>
+        <v>104113</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>98645</v>
+        <v>97890</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>55180</v>
+        <v>55399</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>280375</v>
+        <v>282564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>167825</v>
+        <v>168652</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>218645</v>
+        <v>218611</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>147370</v>
+        <v>145361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>135340</v>
+        <v>137104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>80384</v>
+        <v>80947</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>339527</v>
+        <v>342683</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>218590</v>
+        <v>219401</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>197542</v>
+        <v>199291</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>154055</v>
+        <v>151443</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>117965</v>
+        <v>118505</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>89446</v>
+        <v>88396</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>327879</v>
+        <v>326183</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>249532</v>
+        <v>251944</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>247338</v>
+        <v>244596</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>199460</v>
+        <v>198563</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>158987</v>
+        <v>158239</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>119247</v>
+        <v>117532</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>395486</v>
+        <v>392002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>304641</v>
+        <v>306286</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>157538</v>
+        <v>158180</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>159953</v>
+        <v>160061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>111250</v>
+        <v>113102</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>82231</v>
+        <v>82313</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>278854</v>
+        <v>282249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>252729</v>
+        <v>252422</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>201664</v>
+        <v>203229</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>201921</v>
+        <v>201965</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>150487</v>
+        <v>151990</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>109624</v>
+        <v>109201</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>344036</v>
+        <v>343385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>302812</v>
+        <v>305457</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>135335</v>
+        <v>136809</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>113769</v>
+        <v>113030</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>92283</v>
+        <v>92968</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>81614</v>
+        <v>80627</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>243409</v>
+        <v>241365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>201452</v>
+        <v>201188</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>171556</v>
+        <v>174372</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>145051</v>
+        <v>144052</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>127300</v>
+        <v>128578</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>106920</v>
+        <v>105948</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>292883</v>
+        <v>293229</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>240442</v>
+        <v>242798</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>113735</v>
+        <v>114631</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>116415</v>
+        <v>115978</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>151702</v>
+        <v>153565</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>166205</v>
+        <v>166006</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>276446</v>
+        <v>277466</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>291255</v>
+        <v>290713</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>141181</v>
+        <v>141947</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>146291</v>
+        <v>146102</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>198983</v>
+        <v>198507</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>197020</v>
+        <v>197917</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>328110</v>
+        <v>329376</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>332932</v>
+        <v>334545</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1089350</v>
+        <v>1096287</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>836096</v>
+        <v>837385</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>776095</v>
+        <v>776948</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>585309</v>
+        <v>584683</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1910188</v>
+        <v>1898294</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1447264</v>
+        <v>1447630</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1204437</v>
+        <v>1204431</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>945664</v>
+        <v>945487</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>878213</v>
+        <v>884247</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>659328</v>
+        <v>661656</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2053364</v>
+        <v>2054474</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1581738</v>
+        <v>1576376</v>
       </c>
     </row>
     <row r="36">
